--- a/Thiết kế/UseCases/5. Tìm kiếm.xlsx
+++ b/Thiết kế/UseCases/5. Tìm kiếm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590B4CD-542F-4A3C-B55A-5A54367AFEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845AE3F-8B64-4066-B6A4-AB26BEF4B1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04392538-DB61-43EC-AFA3-E88B6D995574}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04392538-DB61-43EC-AFA3-E88B6D995574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,18 +232,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -253,17 +255,14 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -286,23 +285,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2142067</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>60490</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57583</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>172439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E74CDC-0217-4389-9CD4-36CCA03464CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60C90F6-8781-43B8-A7FB-E055E05A8C59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -318,52 +317,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6502400"/>
-          <a:ext cx="2142067" cy="7883690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561295</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>260972</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC431213-7E25-4DC1-92ED-F3D8CB8BA7D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9719733" y="211667"/>
-          <a:ext cx="5438095" cy="3495238"/>
+          <a:off x="8220075" y="0"/>
+          <a:ext cx="3105583" cy="7087589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -674,19 +629,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E5EAC9-BCA6-4B31-A937-E7944D29B1E5}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="10" customWidth="1"/>
+    <col min="2" max="3" width="39.7109375" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -694,8 +649,8 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -703,8 +658,8 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -712,8 +667,8 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -721,8 +676,8 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -730,82 +685,82 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -813,8 +768,8 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -822,8 +777,8 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -831,8 +786,8 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -840,8 +795,8 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -849,8 +804,8 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -858,20 +813,20 @@
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="E22" t="s">
+      <c r="E22" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -879,8 +834,8 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="7">
@@ -890,12 +845,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -907,8 +856,15 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Thiết kế/UseCases/5. Tìm kiếm.xlsx
+++ b/Thiết kế/UseCases/5. Tìm kiếm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845AE3F-8B64-4066-B6A4-AB26BEF4B1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBAC05E-C45F-4530-A6D5-89D348032C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04392538-DB61-43EC-AFA3-E88B6D995574}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04392538-DB61-43EC-AFA3-E88B6D995574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Use Case Number:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>4. Hệ thống hiển thị danh mục của chức năng đã chọn.</t>
   </si>
   <si>
-    <t xml:space="preserve">5. Actor xem trang đã hiển thị, use case kết thúc tại đây. </t>
-  </si>
-  <si>
     <t>5. Actor nhập từ khóa vào thanh tìm kiếm</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Actor muốn tìm kiếm</t>
   </si>
   <si>
-    <t>Mẫn Đạt</t>
-  </si>
-  <si>
     <t>Actor tìm kiếm được thông tin cần tìm</t>
   </si>
   <si>
@@ -132,10 +126,13 @@
     <t>3. Actor chọn chức năng cần sử dụng (quản lí nhân viên, đơn đặt hàng, khách hàng, kho, hóa đơn)</t>
   </si>
   <si>
-    <t>6. Hệ thống truy xuất CSDL và hiện kết quả ra màn hình</t>
-  </si>
-  <si>
     <t>Quản lí, nhân viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Hệ thống truy xuất CSDL và hiện kết quả ra màn hình, use case kết thúc tại đây. </t>
+  </si>
+  <si>
+    <t>Nguyễn Mẫn Đạt</t>
   </si>
 </sst>
 </file>
@@ -170,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -228,11 +225,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -246,23 +267,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -287,21 +314,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>57583</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>172439</xdr:rowOff>
+      <xdr:colOff>180562</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60C90F6-8781-43B8-A7FB-E055E05A8C59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74104368-9F41-4F88-BB3F-1A15D606DCE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -317,8 +344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220075" y="0"/>
-          <a:ext cx="3105583" cy="7087589"/>
+          <a:off x="8442960" y="213360"/>
+          <a:ext cx="3304762" cy="6704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -627,47 +654,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E5EAC9-BCA6-4B31-A937-E7944D29B1E5}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="10" customWidth="1"/>
-    <col min="2" max="3" width="39.7109375" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="34.6640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="39.6640625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -676,17 +703,17 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -696,167 +723,160 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="E22" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B23" s="10">
         <v>44159</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A6:A13"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
